--- a/datasets/Brasileirao/match_history/teams/avai.xlsx
+++ b/datasets/Brasileirao/match_history/teams/avai.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:R153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2022-04-10</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>44661</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -578,12 +590,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>564</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5689287911791218</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2022-04-16</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>44667</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,12 +658,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>558</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.5723526251566332</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2022-04-25</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -706,12 +726,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>549</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5775270487619547</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -770,12 +794,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>543</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5810026273636019</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2022-05-09</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,12 +862,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>535</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5856692901447937</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022-05-15</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>44696</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -898,12 +930,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>529</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5891938690486437</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2022-05-22</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>44703</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -962,12 +998,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>522</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.593332695123052</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2022-05-29</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>44710</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,12 +1066,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>515</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5975005946182375</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2022-06-04</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>44716</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1090,12 +1134,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>509</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.6010963747389753</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022-06-08</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>44720</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1154,12 +1202,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>505</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6035055754270405</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2022-06-13</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1218,12 +1270,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>500</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6065306597126334</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2022-06-16</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>44728</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1282,12 +1338,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>497</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6083529838111763</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2022-06-19</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>44731</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1346,12 +1406,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>494</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.6101807830906798</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2022-06-26</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>44738</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1410,12 +1474,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>487</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.6144670329446308</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2022-07-03</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>44745</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1474,12 +1542,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>480</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.6187833918061408</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>44751</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1538,12 +1610,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>474</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6225072525676867</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2022-07-16</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>44758</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1602,12 +1678,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>467</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.626880090412377</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2022-07-19</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>44761</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1666,12 +1746,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>464</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.6287635544670984</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2022-07-24</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>44766</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1730,12 +1814,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>459</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6319152448994959</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2022-07-31</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>44773</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1794,12 +1882,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>452</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6363541697250871</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2022-08-06</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>44779</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1858,12 +1950,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>446</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.6401837720616471</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>44786</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1922,12 +2018,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>439</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.6446807796298013</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2022-08-22</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1986,12 +2086,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>430</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.6505090947233165</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>44800</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2050,12 +2154,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>425</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.6537697851298473</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>44807</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2114,12 +2222,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>418</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.6583622284248272</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2022-09-11</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>44815</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2178,12 +2290,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>410</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.6636502501363194</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2022-09-17</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>44821</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2242,12 +2358,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>404</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.6676441212689289</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2022-09-25</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>44829</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2306,12 +2426,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>396</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.6730066959373864</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2370,12 +2494,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>390</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6770568744981647</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2022-10-06</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>44840</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2434,12 +2562,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>385</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.6804506362045877</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2022-10-09</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>44843</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2498,12 +2630,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>382</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.6824950532053901</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2022-10-16</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>44850</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2562,12 +2698,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>375</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.6872892787909722</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2022-10-22</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>44856</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2626,12 +2766,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>369</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.6914254104503085</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2022-10-27</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>44861</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2690,12 +2834,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>364</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.6948911947429106</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2022-11-02</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>44867</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2754,12 +2902,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>358</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.6990730750065257</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2022-11-05</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>44870</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2818,12 +2970,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>355</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7011734432085724</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2022-11-09</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>44874</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2882,12 +3038,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>351</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.7039837538556208</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2022-11-12</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>44877</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2946,12 +3106,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>348</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.7060988762143844</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2019-04-27</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>43582</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3010,12 +3174,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>1643</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1933989742019536</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2019-05-01</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>43586</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3074,12 +3242,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>1639</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.194174119355542</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2019-05-05</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>43590</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3138,12 +3310,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>1635</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.1949523712991825</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2019-05-12</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>43597</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3202,12 +3378,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>1628</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.1963218253956815</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2019-05-19</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>43604</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3266,12 +3446,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.1977008993009057</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2019-05-27</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>43612</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3330,12 +3514,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>1613</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1992888498283624</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2019-06-02</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>43618</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3394,12 +3582,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>1607</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.2004881773118026</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2019-06-08</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>43624</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3458,12 +3650,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>1601</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.2016947223912788</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2019-06-13</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>43629</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3522,12 +3718,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>1596</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2027057213944961</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2019-07-13</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>43659</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3586,12 +3786,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>1566</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.2088790296692769</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2019-07-21</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>43667</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3650,12 +3854,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.2105567638956302</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2019-07-28</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>43674</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3714,12 +3922,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>1551</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2120358319415374</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2019-08-04</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>43681</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3778,12 +3990,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>1544</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2135252897856346</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2019-08-11</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>43688</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3842,12 +4058,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>1537</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.2150252104116543</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2019-08-18</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>43695</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3906,12 +4126,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>1530</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.2165356673160071</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>43702</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3970,12 +4194,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>1523</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.2180567345113836</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2019-09-02</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>43710</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4034,12 +4262,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>1515</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.2198081848477617</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2019-09-07</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>43715</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4098,12 +4330,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>1510</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.2209099779593782</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2019-09-15</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>43723</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4162,12 +4398,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>1502</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.2226843457910951</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2019-09-23</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>43731</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4226,12 +4466,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>1494</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2244729654969523</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2019-09-26</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>43734</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4290,12 +4534,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>1491</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.2251473955326743</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2019-09-30</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>43738</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4354,12 +4602,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>1487</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.226049788697945</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2019-10-06</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>43744</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4418,12 +4670,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>1481</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.227410164476343</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2019-10-10</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4482,12 +4738,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>1477</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.2283216268437002</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2019-10-13</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>43751</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4546,12 +4806,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>1474</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.2290076201997705</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2019-10-17</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>43755</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4610,12 +4874,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>1470</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.2299254851867238</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2019-10-20</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>43758</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4674,12 +4942,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>1467</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.2306162973424085</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2019-10-27</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>43765</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4738,12 +5010,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>1460</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.2322362747297588</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2019-10-30</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>43768</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4802,12 +5078,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>1457</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.2329340296630319</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>43772</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4866,12 +5146,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>1453</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2338676317410376</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>43775</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4930,12 +5214,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>1450</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.2345702880937977</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2019-11-11</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>43780</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4994,12 +5282,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>1445</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2357460765558635</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2019-11-18</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>43787</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5058,12 +5350,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>1438</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2374020883710651</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2019-11-24</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>43793</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5122,12 +5418,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>1432</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.2388307826981924</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2019-11-27</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>43796</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5186,12 +5486,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>1429</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2395483508603542</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2019-12-01</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>43800</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5250,12 +5554,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>1425</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2405084632083421</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2019-12-05</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>43804</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5314,12 +5622,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>1421</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.2414724236968722</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2019-12-08</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>43807</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5378,12 +5690,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>1418</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.2421979286813109</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2017-05-14</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>42869</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5438,12 +5754,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q78" t="n">
+        <v>2356</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.09479866045903014</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2017-05-22</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>42877</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5498,12 +5818,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q79" t="n">
+        <v>2348</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.09556009140552765</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2017-05-29</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>42884</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5558,12 +5882,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q80" t="n">
+        <v>2341</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.09623135874003103</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2017-06-04</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>42890</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5618,12 +5946,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q81" t="n">
+        <v>2335</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.09681048252646021</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2017-06-07</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>42893</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5678,12 +6010,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q82" t="n">
+        <v>2332</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.09710135005718508</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2017-06-11</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>42897</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5738,12 +6074,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q83" t="n">
+        <v>2328</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.09749053330499859</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2017-06-14</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>42900</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5798,12 +6138,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>2325</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.09778344405135005</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2017-06-17</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>42903</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5858,12 +6202,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q85" t="n">
+        <v>2322</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.09807723484935806</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2017-06-21</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>42907</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5918,12 +6266,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q86" t="n">
+        <v>2318</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.09847032945383845</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2017-06-26</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>42912</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5978,12 +6330,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q87" t="n">
+        <v>2313</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.0989639140342579</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2017-07-02</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>42918</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6038,12 +6394,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q88" t="n">
+        <v>2307</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.09955948243696745</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2017-07-09</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>42925</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6098,12 +6458,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q89" t="n">
+        <v>2300</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.1002588437228037</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2017-07-13</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>42929</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6158,12 +6522,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q90" t="n">
+        <v>2296</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1006606822389427</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2017-07-16</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>42932</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6218,12 +6586,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q91" t="n">
+        <v>2293</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.1009631177120426</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2017-07-19</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>42935</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6278,12 +6650,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q92" t="n">
+        <v>2290</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.1012664618538834</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2017-07-23</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>42939</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6338,12 +6714,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q93" t="n">
+        <v>2286</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.1016723389142504</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2017-07-29</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>42945</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6398,12 +6778,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q94" t="n">
+        <v>2280</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.1022842067155374</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2017-08-03</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>42950</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6458,12 +6842,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q95" t="n">
+        <v>2275</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.1027969084352864</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2017-08-06</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>42953</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6518,12 +6906,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q96" t="n">
+        <v>2272</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.1031057622096134</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2017-08-12</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>42959</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6578,12 +6970,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q97" t="n">
+        <v>2266</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.1037262564039727</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2017-08-20</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>42967</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6638,12 +7034,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q98" t="n">
+        <v>2258</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.1045593945644476</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2017-08-27</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>42974</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6698,12 +7098,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q99" t="n">
+        <v>2251</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.1052938780193526</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2017-09-10</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>42988</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6758,12 +7162,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q100" t="n">
+        <v>2237</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.1067783594350831</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2017-09-17</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>42995</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6818,12 +7226,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q101" t="n">
+        <v>2230</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.107528430135795</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2017-09-23</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>43001</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6878,12 +7290,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q102" t="n">
+        <v>2224</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.1081755401051891</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2017-10-01</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>43009</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6938,12 +7354,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q103" t="n">
+        <v>2216</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.109044415292785</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2017-10-11</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>43019</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6998,12 +7418,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q104" t="n">
+        <v>2206</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.1101403298860729</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2017-10-15</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>43023</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7058,12 +7482,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q105" t="n">
+        <v>2202</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.1105817735042622</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2017-10-18</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>43026</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7118,12 +7546,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q106" t="n">
+        <v>2199</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.1109140169407472</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2017-10-22</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>43030</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7178,12 +7610,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q107" t="n">
+        <v>2195</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.1113585615049126</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2017-10-29</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>43037</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7238,12 +7674,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q108" t="n">
+        <v>2188</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.1121408060973577</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2017-11-04</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>43043</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7298,12 +7738,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q109" t="n">
+        <v>2182</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.1128156735115835</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2017-11-08</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>43047</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7358,12 +7802,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q110" t="n">
+        <v>2178</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.1132678399355895</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2017-11-11</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>43050</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -7418,12 +7866,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q111" t="n">
+        <v>2175</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.1136081536707637</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2017-11-15</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>43054</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7478,12 +7930,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q112" t="n">
+        <v>2171</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.1140634963637092</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2017-11-20</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>43059</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7538,12 +7994,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q113" t="n">
+        <v>2166</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.1146352420185286</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2017-11-26</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>43065</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7598,12 +8058,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q114" t="n">
+        <v>2160</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.1153251210380625</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2017-12-03</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>43072</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7658,12 +8122,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q115" t="n">
+        <v>2153</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.1161352289551006</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2015-05-10</t>
-        </is>
+      <c r="A116" s="2" t="n">
+        <v>42134</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7714,12 +8182,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q116" t="n">
+        <v>3091</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.04545647519361237</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2015-05-17</t>
-        </is>
+      <c r="A117" s="2" t="n">
+        <v>42141</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7770,12 +8242,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q117" t="n">
+        <v>3084</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.04577578680675899</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2015-05-24</t>
-        </is>
+      <c r="A118" s="2" t="n">
+        <v>42148</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -7826,12 +8302,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q118" t="n">
+        <v>3077</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.04609734144261812</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2015-05-30</t>
-        </is>
+      <c r="A119" s="2" t="n">
+        <v>42154</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -7882,12 +8362,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q119" t="n">
+        <v>3071</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.04637475690541633</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2015-06-03</t>
-        </is>
+      <c r="A120" s="2" t="n">
+        <v>42158</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -7938,12 +8422,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q120" t="n">
+        <v>3067</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.04656062742625237</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2015-06-07</t>
-        </is>
+      <c r="A121" s="2" t="n">
+        <v>42162</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -7994,12 +8482,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q121" t="n">
+        <v>3063</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.04674724291812053</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2015-06-14</t>
-        </is>
+      <c r="A122" s="2" t="n">
+        <v>42169</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -8050,12 +8542,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q122" t="n">
+        <v>3056</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.04707562160306615</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2015-06-21</t>
-        </is>
+      <c r="A123" s="2" t="n">
+        <v>42176</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -8106,12 +8602,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q123" t="n">
+        <v>3049</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.04740630700288939</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2015-06-27</t>
-        </is>
+      <c r="A124" s="2" t="n">
+        <v>42182</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -8162,12 +8662,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q124" t="n">
+        <v>3043</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.04769159986762284</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2015-07-01</t>
-        </is>
+      <c r="A125" s="2" t="n">
+        <v>42186</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -8218,12 +8722,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q125" t="n">
+        <v>3039</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.04788274830911178</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2015-07-05</t>
-        </is>
+      <c r="A126" s="2" t="n">
+        <v>42190</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -8274,12 +8782,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q126" t="n">
+        <v>3035</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.04807466287559518</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2015-07-08</t>
-        </is>
+      <c r="A127" s="2" t="n">
+        <v>42193</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -8330,12 +8842,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q127" t="n">
+        <v>3032</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.04821910341670324</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2015-07-12</t>
-        </is>
+      <c r="A128" s="2" t="n">
+        <v>42197</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -8386,12 +8902,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q128" t="n">
+        <v>3028</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.04841236609804924</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2015-07-19</t>
-        </is>
+      <c r="A129" s="2" t="n">
+        <v>42204</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -8442,12 +8962,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q129" t="n">
+        <v>3021</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.04875244153612863</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2015-07-25</t>
-        </is>
+      <c r="A130" s="2" t="n">
+        <v>42210</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -8498,12 +9022,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q130" t="n">
+        <v>3015</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.04904583548701673</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2015-08-02</t>
-        </is>
+      <c r="A131" s="2" t="n">
+        <v>42218</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -8554,12 +9082,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q131" t="n">
+        <v>3007</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.04943977583127698</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2015-08-08</t>
-        </is>
+      <c r="A132" s="2" t="n">
+        <v>42224</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -8610,12 +9142,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q132" t="n">
+        <v>3001</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.0497373061847345</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2015-08-13</t>
-        </is>
+      <c r="A133" s="2" t="n">
+        <v>42229</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -8666,12 +9202,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q133" t="n">
+        <v>2996</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.04998661546947589</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2015-08-16</t>
-        </is>
+      <c r="A134" s="2" t="n">
+        <v>42232</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -8722,12 +9262,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q134" t="n">
+        <v>2993</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0.05013680048076252</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2015-08-22</t>
-        </is>
+      <c r="A135" s="2" t="n">
+        <v>42238</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -8778,12 +9322,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q135" t="n">
+        <v>2987</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.05043852555369119</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2015-08-30</t>
-        </is>
+      <c r="A136" s="2" t="n">
+        <v>42246</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -8834,12 +9382,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q136" t="n">
+        <v>2979</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.05084365210364792</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2015-09-02</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>42249</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -8890,12 +9442,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q137" t="n">
+        <v>2976</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.05099641208536147</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2015-09-06</t>
-        </is>
+      <c r="A138" s="2" t="n">
+        <v>42253</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -8946,12 +9502,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q138" t="n">
+        <v>2972</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.05120080624950572</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2015-09-09</t>
-        </is>
+      <c r="A139" s="2" t="n">
+        <v>42256</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -9002,12 +9562,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q139" t="n">
+        <v>2969</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.05135463930245891</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2015-09-13</t>
-        </is>
+      <c r="A140" s="2" t="n">
+        <v>42260</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -9058,12 +9622,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q140" t="n">
+        <v>2965</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.0515604692451142</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2015-09-16</t>
-        </is>
+      <c r="A141" s="2" t="n">
+        <v>42263</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -9114,12 +9682,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q141" t="n">
+        <v>2962</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.05171538290715736</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2015-09-20</t>
-        </is>
+      <c r="A142" s="2" t="n">
+        <v>42267</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -9170,12 +9742,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q142" t="n">
+        <v>2958</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0.05192265871403207</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2015-09-26</t>
-        </is>
+      <c r="A143" s="2" t="n">
+        <v>42273</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -9226,12 +9802,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q143" t="n">
+        <v>2952</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0.05223513114619603</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2015-10-04</t>
-        </is>
+      <c r="A144" s="2" t="n">
+        <v>42281</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -9282,12 +9862,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q144" t="n">
+        <v>2944</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.05265468818588921</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2015-10-14</t>
-        </is>
+      <c r="A145" s="2" t="n">
+        <v>42291</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -9338,12 +9922,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q145" t="n">
+        <v>2934</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.05318387659992216</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2015-10-17</t>
-        </is>
+      <c r="A146" s="2" t="n">
+        <v>42294</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -9394,12 +9982,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q146" t="n">
+        <v>2931</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0.05334366779667368</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2015-10-25</t>
-        </is>
+      <c r="A147" s="2" t="n">
+        <v>42302</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -9450,12 +10042,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q147" t="n">
+        <v>2923</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0.05377212869752812</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2015-10-31</t>
-        </is>
+      <c r="A148" s="2" t="n">
+        <v>42308</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -9506,12 +10102,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q148" t="n">
+        <v>2917</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0.05409573130673365</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2015-11-07</t>
-        </is>
+      <c r="A149" s="2" t="n">
+        <v>42315</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -9562,12 +10162,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q149" t="n">
+        <v>2910</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0.05447572986918986</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2015-11-18</t>
-        </is>
+      <c r="A150" s="2" t="n">
+        <v>42326</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -9618,12 +10222,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q150" t="n">
+        <v>2899</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0.05507827079724649</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2015-11-22</t>
-        </is>
+      <c r="A151" s="2" t="n">
+        <v>42330</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -9674,12 +10282,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q151" t="n">
+        <v>2895</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0.05529902509469138</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2015-11-28</t>
-        </is>
+      <c r="A152" s="2" t="n">
+        <v>42336</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -9730,12 +10342,16 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q152" t="n">
+        <v>2889</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0.05563181662146587</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2015-12-06</t>
-        </is>
+      <c r="A153" s="2" t="n">
+        <v>42344</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -9786,6 +10402,12 @@
           <t>avai</t>
         </is>
       </c>
+      <c r="Q153" t="n">
+        <v>2881</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0.05607865612932754</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
